--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang12/NKSX_50TB_TG102LE_ESIM_161224.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang12/NKSX_50TB_TG102LE_ESIM_161224.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho_2024\NhapKho\Thang12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DEF5CE-7B3C-483B-9627-3E97B9CA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6069ED0B-ADF5-475B-A40D-B5BA6E5FD4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,7 +852,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
